--- a/similarities/split_global/harmonic_similarity_timestamps_326.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_326.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:32.520000', '0:00:47.400000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:01:07.700000', '0:01:14.300000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=32.52</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=67.7</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:min', 'C', 'F:min', 'F:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:00:11.160000', '0:00:16.920000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:08.300000', '0:00:12.960000')]</t>
+          <t>('0:00:11.890000', '0:00:19.531000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
+          <t>('0:03:46.220000', '0:03:49.640000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.500000', '0:00:06.820000')]</t>
+          <t>('0:00:42.394399', '0:00:50.173083')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=226.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=1.5']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=42.394399</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
+          <t>['F:maj', 'G', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:25.940000', '0:00:45.200000')]</t>
+          <t>('0:00:44.836000', '0:00:49.319000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:05.672040', '0:00:08.841564')]</t>
+          <t>('0:00:32.808000', '0:00:36.091000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=25.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#', 'G#']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'G']]</t>
+          <t>['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:52.180000', '0:00:56.760000')]</t>
+          <t>('0:00:10.460000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:14.414000', '0:00:17.044000')]</t>
+          <t>('0:00:00.421247', '0:00:08.635573')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=52.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=14.414']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.060000', '0:00:11.040000')]</t>
+          <t>('0:00:42.080000', '0:00:57.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=6.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:00.320000', '0:00:09.540000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3', 'Db:min/b3', 'Ab']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A', 'A:7', 'D', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:24.380000')]</t>
+          <t>('0:00:05.320000', '0:00:11.340000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+          <t>('0:00:18.651995', '0:00:30.830861')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=18.651995</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['E:min7', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:03:31.260000', '0:03:39.140000'), ('0:00:51.080000', '0:00:57.700000')]</t>
+          <t>('0:00:08.780000', '0:00:16.050000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.851927', '0:00:16.810929'), ('0:00:18.783807', '0:00:24.845034')]</t>
+          <t>('0:00:14.530000', '0:00:17.430000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=211.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=51.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=8.78</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=12.851927', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=18.783807']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=14.53</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+          <t>('0:00:27.600000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:00:21.780000', '0:00:31.740000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:39')]</t>
+          <t>('0:00:23.980000', '0:00:31.920000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:44.360000', '0:03:26.120000')]</t>
+          <t>('0:00:23.420000', '0:00:31.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=164.36']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F#:7', 'B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7/D#', 'A#:maj/D'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['C:7', 'F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:19.060000', '0:00:30.080000'), ('0:01:10.560000', '0:01:14.380000'), ('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:09.540000', '0:00:12.320000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:56.440000', '0:01:05.460000'), ('0:01:01.680000', '0:01:07.260000'), ('0:01:14.900000', '0:01:26.120000')]</t>
+          <t>('0:00:40.500000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=70.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=9.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=56.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=61.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=40.5</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:00:00.380000', '0:00:06.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:08.300000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'F:min']]</t>
+          <t>['G/3', 'G:min/b3', 'D:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:min', 'B:min']]</t>
+          <t>['B:maj', 'B:min', 'F#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:30.731632', '0:00:37.848548')]</t>
+          <t>('0:01:04.294000', '0:01:07.223000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:37.859000', '0:00:43.283000')]</t>
+          <t>('0:00:10.320000', '0:00:18.140000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=30.731632']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=64.294</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=37.859']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=10.32</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
